--- a/config/antiSac/antisac_run1.xlsx
+++ b/config/antiSac/antisac_run1.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$27</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1026,10 +1029,10 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="4" max="4" width="9" style="1"/>
   </cols>
@@ -1122,13 +1125,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <v>0.75</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2">
         <v>7.225</v>
@@ -1162,13 +1165,13 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
         <v>0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2">
         <v>11.125</v>
@@ -1242,13 +1245,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2">
         <v>19.675</v>
@@ -1302,13 +1305,13 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
         <v>0.75</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" s="2">
         <v>26.9</v>
@@ -1342,13 +1345,13 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1">
         <v>1.5</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" s="2">
         <v>30.8</v>
@@ -1362,13 +1365,13 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
         <v>0.75</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" s="2">
         <v>33.625</v>
@@ -1382,13 +1385,13 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1">
         <v>1.25</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F18" s="2">
         <v>35.7</v>
@@ -1402,13 +1405,13 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
         <v>0.5</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" s="2">
         <v>38.275</v>
@@ -1423,13 +1426,13 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F20" s="2">
         <v>40.1</v>
@@ -1483,13 +1486,13 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" s="1">
         <v>0.5</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F23" s="2">
         <v>47.075</v>
@@ -1523,13 +1526,13 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" s="1">
         <v>1.5</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F25" s="2">
         <v>51.475</v>
@@ -1543,13 +1546,13 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1">
         <v>1.5</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F26" s="2">
         <v>54.3</v>
@@ -1576,6 +1579,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F27" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
